--- a/library/_pslReport.xlsx
+++ b/library/_pslReport.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\fas2020\library\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="630" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Q$37</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
   <si>
     <t>OFFICE</t>
   </si>
@@ -50,7 +55,7 @@
     <t xml:space="preserve">PERIOD: </t>
   </si>
   <si>
-    <t>Month of February 2020</t>
+    <t>Month of January 2021</t>
   </si>
   <si>
     <t>Date</t>
@@ -87,7 +92,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -97,7 +101,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
       </rPr>
       <t>&gt;                           85%</t>
     </r>
@@ -113,7 +116,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -123,7 +125,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
       </rPr>
       <t>&gt;                           85%</t>
     </r>
@@ -142,7 +143,6 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -152,17 +152,76 @@
         <sz val="9"/>
         <color rgb="FF000000"/>
         <rFont val="Cambria"/>
-        <family val="1"/>
       </rPr>
       <t>&gt;                          85%</t>
     </r>
+  </si>
+  <si>
+    <t>January 04, 2021</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>January 05, 2021</t>
+  </si>
+  <si>
+    <t>January 07, 2021</t>
+  </si>
+  <si>
+    <t>January 08, 2021</t>
+  </si>
+  <si>
+    <t>January 11, 2021</t>
+  </si>
+  <si>
+    <t>January 12, 2021</t>
+  </si>
+  <si>
+    <t>January 13, 2021</t>
+  </si>
+  <si>
+    <t>January 14, 2021</t>
+  </si>
+  <si>
+    <t>January 15, 2021</t>
+  </si>
+  <si>
+    <t>January 18, 2021</t>
+  </si>
+  <si>
+    <t>January 19, 2021</t>
+  </si>
+  <si>
+    <t>January 20, 2021</t>
+  </si>
+  <si>
+    <t>January 21, 2021</t>
+  </si>
+  <si>
+    <t>January 22, 2021</t>
+  </si>
+  <si>
+    <t>January 25, 2021</t>
+  </si>
+  <si>
+    <t>January 26, 2021</t>
+  </si>
+  <si>
+    <t>January 28, 2021</t>
+  </si>
+  <si>
+    <t>January 29, 2021</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -173,27 +232,39 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
     </font>
     <font>
       <b/>
@@ -201,21 +272,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -356,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -390,25 +446,67 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -432,56 +530,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -492,6 +554,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -535,11 +600,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>488558</xdr:colOff>
+      <xdr:colOff>485775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>117909</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2926080" cy="857250"/>
+    <xdr:ext cx="2924175" cy="811931"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 6"/>
@@ -547,15 +612,22 @@
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect l="979" r="1499"/>
-        <a:stretch/>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8746319" y="95250"/>
-          <a:ext cx="2926080" cy="857250"/>
+          <a:off x="8743536" y="117909"/>
+          <a:ext cx="2924175" cy="811931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -892,8 +964,8 @@
   </sheetPr>
   <dimension ref="A9:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="E19" zoomScale="115" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,73 +983,73 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="30"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="33" t="s">
+      <c r="A11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="33"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -986,44 +1058,44 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="39" t="s">
+      <c r="E12" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="41" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="42"/>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
-      <c r="P13" s="42"/>
-      <c r="Q13" s="43"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1045,47 +1117,47 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="31" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="45" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="6" t="s">
         <v>17</v>
       </c>
@@ -1110,15 +1182,15 @@
       <c r="P16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="Q16" s="31"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1131,347 +1203,671 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+    <row r="18" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="14">
+        <v>1</v>
+      </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="14"/>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
+      <c r="G18" s="14">
+        <v>1</v>
+      </c>
+      <c r="H18" s="14">
+        <v>1</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="14">
+        <v>1</v>
+      </c>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="14"/>
+      <c r="M18" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18" s="14">
+        <v>1</v>
+      </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
+    <row r="19" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="14">
+        <v>3</v>
+      </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
+      <c r="E19" s="18">
+        <v>3</v>
+      </c>
+      <c r="F19" s="18"/>
+      <c r="G19" s="14">
+        <v>3</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" s="14">
+        <v>3</v>
+      </c>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="M19" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N19" s="14">
+        <v>3</v>
+      </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
+    <row r="20" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="14">
+        <v>4</v>
+      </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
+      <c r="E20" s="18">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="14">
+        <v>4</v>
+      </c>
+      <c r="H20" s="14">
+        <v>4</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="14">
+        <v>4</v>
+      </c>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="M20" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="14">
+        <v>4</v>
+      </c>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="13"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="32"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="13"/>
-      <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13"/>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="13"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+    <row r="21" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="14">
+        <v>2</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="18">
+        <v>2</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="14">
+        <v>2</v>
+      </c>
+      <c r="H21" s="14">
+        <v>2</v>
+      </c>
+      <c r="I21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="14">
+        <v>2</v>
+      </c>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N21" s="14">
+        <v>2</v>
+      </c>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="14">
+        <v>3</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="18">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18"/>
+      <c r="G22" s="14">
+        <v>3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>3</v>
+      </c>
+      <c r="I22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="14">
+        <v>3</v>
+      </c>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N22" s="14">
+        <v>3</v>
+      </c>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="14">
+        <v>4</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="18">
+        <v>4</v>
+      </c>
+      <c r="F23" s="18"/>
+      <c r="G23" s="14">
+        <v>4</v>
+      </c>
+      <c r="H23" s="14">
+        <v>4</v>
+      </c>
+      <c r="I23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="14">
+        <v>4</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N23" s="14">
+        <v>4</v>
+      </c>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+    </row>
+    <row r="24" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="14">
+        <v>8</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="18">
+        <v>8</v>
+      </c>
+      <c r="F24" s="18"/>
+      <c r="G24" s="14">
+        <v>8</v>
+      </c>
+      <c r="H24" s="14">
+        <v>8</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="14">
+        <v>8</v>
+      </c>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24" s="14">
+        <v>8</v>
+      </c>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+    </row>
+    <row r="25" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="14">
+        <v>4</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="18">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18"/>
+      <c r="G25" s="14">
+        <v>4</v>
+      </c>
+      <c r="H25" s="14">
+        <v>4</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="14">
+        <v>4</v>
+      </c>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="14">
+        <v>4</v>
+      </c>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+    </row>
+    <row r="26" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="14">
+        <v>3</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="18">
+        <v>3</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="14">
+        <v>3</v>
+      </c>
+      <c r="H26" s="14">
+        <v>3</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="14">
+        <v>3</v>
+      </c>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="14">
+        <v>3</v>
+      </c>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+    </row>
+    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" s="14">
+        <v>4</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="18">
+        <v>4</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="14">
+        <v>4</v>
+      </c>
+      <c r="H27" s="14">
+        <v>4</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J27" s="14">
+        <v>4</v>
+      </c>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N27" s="14">
+        <v>4</v>
+      </c>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="14">
+        <v>1</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="14">
+        <v>1</v>
+      </c>
+      <c r="H28" s="14">
+        <v>1</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J28" s="14">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N28" s="14">
+        <v>1</v>
+      </c>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+    </row>
+    <row r="29" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="14">
+        <v>1</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="14">
+        <v>1</v>
+      </c>
+      <c r="H29" s="14">
+        <v>1</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J29" s="14">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N29" s="14">
+        <v>1</v>
+      </c>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+    </row>
+    <row r="30" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A30" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="14">
+        <v>3</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="18">
+        <v>3</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="14">
+        <v>3</v>
+      </c>
+      <c r="H30" s="14">
+        <v>3</v>
+      </c>
+      <c r="I30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="14">
+        <v>3</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N30" s="14">
+        <v>3</v>
+      </c>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+    </row>
+    <row r="31" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="14">
+        <v>1</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14">
+        <v>1</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14">
+        <v>1</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="14">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="14">
+        <v>1</v>
+      </c>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+    </row>
+    <row r="32" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="14">
+        <v>5</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14">
+        <v>5</v>
+      </c>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14">
+        <v>5</v>
+      </c>
+      <c r="H32" s="14">
+        <v>5</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J32" s="14">
+        <v>5</v>
+      </c>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N32" s="14">
+        <v>5</v>
+      </c>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+    </row>
+    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="14">
+        <v>2</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14">
+        <v>2</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14">
+        <v>2</v>
+      </c>
+      <c r="H33" s="14">
+        <v>2</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" s="14">
+        <v>2</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="14">
+        <v>2</v>
+      </c>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+    </row>
+    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="14">
+        <v>2</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14">
+        <v>2</v>
+      </c>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14">
+        <v>2</v>
+      </c>
+      <c r="H34" s="14">
+        <v>2</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="14">
+        <v>2</v>
+      </c>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N34" s="14">
+        <v>2</v>
+      </c>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+    </row>
+    <row r="35" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="14">
+        <v>4</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14">
+        <v>4</v>
+      </c>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14">
+        <v>4</v>
+      </c>
+      <c r="H35" s="14">
+        <v>4</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="14">
+        <v>4</v>
+      </c>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="N35" s="14">
+        <v>4</v>
+      </c>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -1493,23 +1889,45 @@
       <c r="Q36" s="13"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="A37" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="16">
+        <f>SUM(B18:B35)</f>
+        <v>55</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="16">
+        <f>SUM(E18:E35)</f>
+        <v>55</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="16">
+        <f>SUM(G18:G35)</f>
+        <v>55</v>
+      </c>
+      <c r="H37" s="16">
+        <f>SUM(H18:H35)</f>
+        <v>55</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="16">
+        <v>1</v>
+      </c>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N37" s="16">
+        <v>1</v>
+      </c>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
@@ -1704,25 +2122,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="32">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C15:D15"/>
@@ -1736,9 +2135,28 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="47" man="1"/>
   </rowBreaks>

--- a/library/_pslReport.xlsx
+++ b/library/_pslReport.xlsx
@@ -41,11 +41,6 @@
     <t>QUALITY OBJECTIVE</t>
   </si>
   <si>
-    <t xml:space="preserve">1. 85% Timeliness to provide immediate assistance within three (3) hours upon receipt of request or within agreed timeline
-2. 85% Satisfactory service rendered
-</t>
-  </si>
-  <si>
     <t>FREQUENCY OF MONITORING:</t>
   </si>
   <si>
@@ -59,9 +54,6 @@
   </si>
   <si>
     <t>Date</t>
-  </si>
-  <si>
-    <t>Total number of ICT Technical Assistance responded within three (3) hours upon receipt of request or within agreed timeline</t>
   </si>
   <si>
     <t>Total number of request for ICT Technical Assistance</t>
@@ -215,6 +207,14 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. 85% Timeliness to provide immediate assistance within three (3) days upon receipt of request or within agreed timeline
+2. 85% Satisfactory service rendered
+</t>
+  </si>
+  <si>
+    <t>Total number of ICT Technical Assistance responded within three (3) days upon receipt of request or within agreed timeline</t>
   </si>
 </sst>
 </file>
@@ -251,18 +251,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <b/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
     </font>
@@ -455,21 +455,69 @@
     <xf numFmtId="9" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -482,68 +530,20 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,9 +602,9 @@
       <xdr:col>12</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>117909</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2924175" cy="811931"/>
+    <xdr:ext cx="2924175" cy="809625"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Picture 6"/>
@@ -613,21 +613,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8743536" y="117909"/>
-          <a:ext cx="2924175" cy="811931"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -964,8 +958,8 @@
   </sheetPr>
   <dimension ref="A9:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A37" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,119 +977,119 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
+      <c r="A11" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="45"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1117,80 +1111,80 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
+      <c r="A15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35" t="s">
+      <c r="H15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
+      <c r="I15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="45" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="16" spans="1:17" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="12" t="s">
+      <c r="L16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="12" t="s">
+      <c r="M16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M16" s="10" t="s">
+      <c r="O16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N16" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="P16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" s="45"/>
+        <v>18</v>
+      </c>
+      <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1203,19 +1197,19 @@
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
     </row>
-    <row r="18" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18" s="14">
         <v>1</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
+      <c r="E18" s="36">
+        <v>1</v>
+      </c>
+      <c r="F18" s="36"/>
       <c r="G18" s="14">
         <v>1</v>
       </c>
@@ -1223,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J18" s="14">
         <v>1</v>
@@ -1231,7 +1225,7 @@
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
       <c r="M18" s="15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N18" s="14">
         <v>1</v>
@@ -1240,19 +1234,19 @@
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
-    <row r="19" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" s="14">
         <v>3</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="18">
-        <v>3</v>
-      </c>
-      <c r="F19" s="18"/>
+      <c r="E19" s="36">
+        <v>3</v>
+      </c>
+      <c r="F19" s="36"/>
       <c r="G19" s="14">
         <v>3</v>
       </c>
@@ -1260,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J19" s="14">
         <v>3</v>
@@ -1268,7 +1262,7 @@
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
       <c r="M19" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N19" s="14">
         <v>3</v>
@@ -1277,19 +1271,19 @@
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
-    <row r="20" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="14">
         <v>4</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="18">
-        <v>4</v>
-      </c>
-      <c r="F20" s="18"/>
+      <c r="E20" s="36">
+        <v>4</v>
+      </c>
+      <c r="F20" s="36"/>
       <c r="G20" s="14">
         <v>4</v>
       </c>
@@ -1297,7 +1291,7 @@
         <v>4</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J20" s="14">
         <v>4</v>
@@ -1305,7 +1299,7 @@
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N20" s="14">
         <v>4</v>
@@ -1314,19 +1308,19 @@
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
-    <row r="21" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="14">
         <v>2</v>
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="18">
+      <c r="E21" s="36">
         <v>2</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="14">
         <v>2</v>
       </c>
@@ -1334,7 +1328,7 @@
         <v>2</v>
       </c>
       <c r="I21" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J21" s="14">
         <v>2</v>
@@ -1342,7 +1336,7 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N21" s="14">
         <v>2</v>
@@ -1351,19 +1345,19 @@
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
-    <row r="22" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B22" s="14">
         <v>3</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="18">
-        <v>3</v>
-      </c>
-      <c r="F22" s="18"/>
+      <c r="E22" s="36">
+        <v>3</v>
+      </c>
+      <c r="F22" s="36"/>
       <c r="G22" s="14">
         <v>3</v>
       </c>
@@ -1371,7 +1365,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J22" s="14">
         <v>3</v>
@@ -1379,7 +1373,7 @@
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
       <c r="M22" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N22" s="14">
         <v>3</v>
@@ -1388,19 +1382,19 @@
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
-    <row r="23" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="14">
         <v>4</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="18">
-        <v>4</v>
-      </c>
-      <c r="F23" s="18"/>
+      <c r="E23" s="36">
+        <v>4</v>
+      </c>
+      <c r="F23" s="36"/>
       <c r="G23" s="14">
         <v>4</v>
       </c>
@@ -1408,7 +1402,7 @@
         <v>4</v>
       </c>
       <c r="I23" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J23" s="14">
         <v>4</v>
@@ -1416,7 +1410,7 @@
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
       <c r="M23" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N23" s="14">
         <v>4</v>
@@ -1425,19 +1419,19 @@
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
-    <row r="24" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="14">
         <v>8</v>
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="18">
+      <c r="E24" s="36">
         <v>8</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="14">
         <v>8</v>
       </c>
@@ -1445,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="I24" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J24" s="14">
         <v>8</v>
@@ -1453,7 +1447,7 @@
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
       <c r="M24" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N24" s="14">
         <v>8</v>
@@ -1462,19 +1456,19 @@
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
-    <row r="25" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B25" s="14">
         <v>4</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="18">
-        <v>4</v>
-      </c>
-      <c r="F25" s="18"/>
+      <c r="E25" s="36">
+        <v>4</v>
+      </c>
+      <c r="F25" s="36"/>
       <c r="G25" s="14">
         <v>4</v>
       </c>
@@ -1482,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="I25" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J25" s="14">
         <v>4</v>
@@ -1490,7 +1484,7 @@
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
       <c r="M25" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N25" s="14">
         <v>4</v>
@@ -1499,19 +1493,19 @@
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
-    <row r="26" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B26" s="14">
         <v>3</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="18">
-        <v>3</v>
-      </c>
-      <c r="F26" s="18"/>
+      <c r="E26" s="36">
+        <v>3</v>
+      </c>
+      <c r="F26" s="36"/>
       <c r="G26" s="14">
         <v>3</v>
       </c>
@@ -1519,7 +1513,7 @@
         <v>3</v>
       </c>
       <c r="I26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J26" s="14">
         <v>3</v>
@@ -1527,7 +1521,7 @@
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
       <c r="M26" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N26" s="14">
         <v>3</v>
@@ -1536,19 +1530,19 @@
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
-    <row r="27" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B27" s="14">
         <v>4</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="18">
-        <v>4</v>
-      </c>
-      <c r="F27" s="18"/>
+      <c r="E27" s="36">
+        <v>4</v>
+      </c>
+      <c r="F27" s="36"/>
       <c r="G27" s="14">
         <v>4</v>
       </c>
@@ -1556,7 +1550,7 @@
         <v>4</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J27" s="14">
         <v>4</v>
@@ -1564,7 +1558,7 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
       <c r="M27" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N27" s="14">
         <v>4</v>
@@ -1573,19 +1567,19 @@
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
-    <row r="28" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B28" s="14">
         <v>1</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="18">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18"/>
+      <c r="E28" s="36">
+        <v>1</v>
+      </c>
+      <c r="F28" s="36"/>
       <c r="G28" s="14">
         <v>1</v>
       </c>
@@ -1593,7 +1587,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J28" s="14">
         <v>1</v>
@@ -1601,7 +1595,7 @@
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N28" s="14">
         <v>1</v>
@@ -1610,19 +1604,19 @@
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
-    <row r="29" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B29" s="14">
         <v>1</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18"/>
+      <c r="E29" s="36">
+        <v>1</v>
+      </c>
+      <c r="F29" s="36"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
@@ -1630,7 +1624,7 @@
         <v>1</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J29" s="14">
         <v>1</v>
@@ -1638,7 +1632,7 @@
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N29" s="14">
         <v>1</v>
@@ -1647,19 +1641,19 @@
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" s="14">
         <v>3</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="18">
-        <v>3</v>
-      </c>
-      <c r="F30" s="18"/>
+      <c r="E30" s="36">
+        <v>3</v>
+      </c>
+      <c r="F30" s="36"/>
       <c r="G30" s="14">
         <v>3</v>
       </c>
@@ -1667,7 +1661,7 @@
         <v>3</v>
       </c>
       <c r="I30" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J30" s="14">
         <v>3</v>
@@ -1675,7 +1669,7 @@
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
       <c r="M30" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N30" s="14">
         <v>3</v>
@@ -1684,9 +1678,9 @@
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="14">
         <v>1</v>
@@ -1704,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="I31" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J31" s="14">
         <v>1</v>
@@ -1712,7 +1706,7 @@
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
       <c r="M31" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N31" s="14">
         <v>1</v>
@@ -1721,9 +1715,9 @@
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="14">
         <v>5</v>
@@ -1741,7 +1735,7 @@
         <v>5</v>
       </c>
       <c r="I32" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J32" s="14">
         <v>5</v>
@@ -1749,7 +1743,7 @@
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
       <c r="M32" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N32" s="14">
         <v>5</v>
@@ -1758,9 +1752,9 @@
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
     </row>
-    <row r="33" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="14">
         <v>2</v>
@@ -1778,7 +1772,7 @@
         <v>2</v>
       </c>
       <c r="I33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J33" s="14">
         <v>2</v>
@@ -1786,7 +1780,7 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
       <c r="M33" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N33" s="14">
         <v>2</v>
@@ -1795,9 +1789,9 @@
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
     </row>
-    <row r="34" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="14">
         <v>2</v>
@@ -1815,7 +1809,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J34" s="14">
         <v>2</v>
@@ -1823,7 +1817,7 @@
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
       <c r="M34" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N34" s="14">
         <v>2</v>
@@ -1832,9 +1826,9 @@
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
     </row>
-    <row r="35" spans="1:17" ht="24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B35" s="14">
         <v>4</v>
@@ -1852,7 +1846,7 @@
         <v>4</v>
       </c>
       <c r="I35" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J35" s="14">
         <v>4</v>
@@ -1860,7 +1854,7 @@
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
       <c r="M35" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N35" s="14">
         <v>4</v>
@@ -1890,7 +1884,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="16">
         <f>SUM(B18:B35)</f>
@@ -1912,7 +1906,7 @@
         <v>55</v>
       </c>
       <c r="I37" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J37" s="16">
         <v>1</v>
@@ -1920,7 +1914,7 @@
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
       <c r="M37" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N37" s="16">
         <v>1</v>
@@ -2122,6 +2116,25 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="32">
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C15:D15"/>
@@ -2135,25 +2148,6 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2161,7 +2155,7 @@
     <brk id="47" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
-    <brk id="17" max="1048575" man="1"/>
+    <brk id="17" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/library/_pslReport.xlsx
+++ b/library/_pslReport.xlsx
@@ -461,6 +461,42 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -508,42 +544,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -709,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +744,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,7 +958,7 @@
   </sheetPr>
   <dimension ref="A9:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A33" zoomScale="115" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -977,73 +977,73 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="30"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="42"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="31" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="32"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="44"/>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="35" t="s">
+      <c r="A11" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -1052,44 +1052,44 @@
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="41" t="s">
+      <c r="E12" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="42"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="43" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="45"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="28"/>
+      <c r="O13" s="28"/>
+      <c r="P13" s="28"/>
+      <c r="Q13" s="29"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1111,47 +1111,47 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="37" t="s">
+      <c r="I15" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="38"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="33" t="s">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="23"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="45" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24"/>
-      <c r="B16" s="23"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="35"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
       <c r="I16" s="6" t="s">
         <v>15</v>
       </c>
@@ -1176,15 +1176,15 @@
       <c r="P16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="33"/>
+      <c r="Q16" s="45"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1206,10 +1206,10 @@
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="36">
-        <v>1</v>
-      </c>
-      <c r="F18" s="36"/>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18"/>
       <c r="G18" s="14">
         <v>1</v>
       </c>
@@ -1243,10 +1243,10 @@
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="36">
-        <v>3</v>
-      </c>
-      <c r="F19" s="36"/>
+      <c r="E19" s="18">
+        <v>3</v>
+      </c>
+      <c r="F19" s="18"/>
       <c r="G19" s="14">
         <v>3</v>
       </c>
@@ -1280,10 +1280,10 @@
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="36">
-        <v>4</v>
-      </c>
-      <c r="F20" s="36"/>
+      <c r="E20" s="18">
+        <v>4</v>
+      </c>
+      <c r="F20" s="18"/>
       <c r="G20" s="14">
         <v>4</v>
       </c>
@@ -1317,10 +1317,10 @@
       </c>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="36">
+      <c r="E21" s="18">
         <v>2</v>
       </c>
-      <c r="F21" s="36"/>
+      <c r="F21" s="18"/>
       <c r="G21" s="14">
         <v>2</v>
       </c>
@@ -1354,10 +1354,10 @@
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="36">
-        <v>3</v>
-      </c>
-      <c r="F22" s="36"/>
+      <c r="E22" s="18">
+        <v>3</v>
+      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="14">
         <v>3</v>
       </c>
@@ -1391,10 +1391,10 @@
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="36">
-        <v>4</v>
-      </c>
-      <c r="F23" s="36"/>
+      <c r="E23" s="18">
+        <v>4</v>
+      </c>
+      <c r="F23" s="18"/>
       <c r="G23" s="14">
         <v>4</v>
       </c>
@@ -1428,10 +1428,10 @@
       </c>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="36">
+      <c r="E24" s="18">
         <v>8</v>
       </c>
-      <c r="F24" s="36"/>
+      <c r="F24" s="18"/>
       <c r="G24" s="14">
         <v>8</v>
       </c>
@@ -1465,10 +1465,10 @@
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="36">
-        <v>4</v>
-      </c>
-      <c r="F25" s="36"/>
+      <c r="E25" s="18">
+        <v>4</v>
+      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="14">
         <v>4</v>
       </c>
@@ -1502,10 +1502,10 @@
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="36">
-        <v>3</v>
-      </c>
-      <c r="F26" s="36"/>
+      <c r="E26" s="18">
+        <v>3</v>
+      </c>
+      <c r="F26" s="18"/>
       <c r="G26" s="14">
         <v>3</v>
       </c>
@@ -1539,10 +1539,10 @@
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="36">
-        <v>4</v>
-      </c>
-      <c r="F27" s="36"/>
+      <c r="E27" s="18">
+        <v>4</v>
+      </c>
+      <c r="F27" s="18"/>
       <c r="G27" s="14">
         <v>4</v>
       </c>
@@ -1576,10 +1576,10 @@
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="36">
-        <v>1</v>
-      </c>
-      <c r="F28" s="36"/>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18"/>
       <c r="G28" s="14">
         <v>1</v>
       </c>
@@ -1613,10 +1613,10 @@
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="36">
-        <v>1</v>
-      </c>
-      <c r="F29" s="36"/>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18"/>
       <c r="G29" s="14">
         <v>1</v>
       </c>
@@ -1650,10 +1650,10 @@
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="36">
-        <v>3</v>
-      </c>
-      <c r="F30" s="36"/>
+      <c r="E30" s="18">
+        <v>3</v>
+      </c>
+      <c r="F30" s="18"/>
       <c r="G30" s="14">
         <v>3</v>
       </c>
@@ -2116,25 +2116,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="32">
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C15:D15"/>
@@ -2148,9 +2129,28 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
     <brk id="47" man="1"/>
   </rowBreaks>

--- a/library/_pslReport.xlsx
+++ b/library/_pslReport.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>OFFICE</t>
   </si>
@@ -41,6 +41,11 @@
     <t>QUALITY OBJECTIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">1. 85% Timeliness to provide immediate assistance within three (3) days upon receipt of request or within agreed timeline
+2. 85% Satisfactory service rendered
+</t>
+  </si>
+  <si>
     <t>FREQUENCY OF MONITORING:</t>
   </si>
   <si>
@@ -54,6 +59,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Total number of ICT Technical Assistance responded within three (3) days upon receipt of request or within agreed timeline</t>
   </si>
   <si>
     <t>Total number of request for ICT Technical Assistance</t>
@@ -147,74 +155,6 @@
       </rPr>
       <t>&gt;                          85%</t>
     </r>
-  </si>
-  <si>
-    <t>January 04, 2021</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>January 05, 2021</t>
-  </si>
-  <si>
-    <t>January 07, 2021</t>
-  </si>
-  <si>
-    <t>January 08, 2021</t>
-  </si>
-  <si>
-    <t>January 11, 2021</t>
-  </si>
-  <si>
-    <t>January 12, 2021</t>
-  </si>
-  <si>
-    <t>January 13, 2021</t>
-  </si>
-  <si>
-    <t>January 14, 2021</t>
-  </si>
-  <si>
-    <t>January 15, 2021</t>
-  </si>
-  <si>
-    <t>January 18, 2021</t>
-  </si>
-  <si>
-    <t>January 19, 2021</t>
-  </si>
-  <si>
-    <t>January 20, 2021</t>
-  </si>
-  <si>
-    <t>January 21, 2021</t>
-  </si>
-  <si>
-    <t>January 22, 2021</t>
-  </si>
-  <si>
-    <t>January 25, 2021</t>
-  </si>
-  <si>
-    <t>January 26, 2021</t>
-  </si>
-  <si>
-    <t>January 28, 2021</t>
-  </si>
-  <si>
-    <t>January 29, 2021</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. 85% Timeliness to provide immediate assistance within three (3) days upon receipt of request or within agreed timeline
-2. 85% Satisfactory service rendered
-</t>
-  </si>
-  <si>
-    <t>Total number of ICT Technical Assistance responded within three (3) days upon receipt of request or within agreed timeline</t>
   </si>
 </sst>
 </file>
@@ -412,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -461,10 +401,52 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -497,52 +479,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -709,7 +652,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -744,7 +687,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -958,8 +901,8 @@
   </sheetPr>
   <dimension ref="A9:Q47"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="85" zoomScaleNormal="55" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,119 +920,119 @@
   </cols>
   <sheetData>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="41" t="s">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="42"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+      <c r="O9" s="29"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="43" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="44"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="32"/>
     </row>
     <row r="11" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="25" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
+      <c r="E12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+      <c r="M12" s="40"/>
+      <c r="N12" s="40"/>
+      <c r="O12" s="40"/>
+      <c r="P12" s="40"/>
+      <c r="Q12" s="40"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="27" t="s">
+      <c r="A13" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="29"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="43"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1111,80 +1054,80 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35" t="s">
+      <c r="A15" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
+      <c r="B15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="21" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="45" t="s">
+      <c r="H15" s="23" t="s">
         <v>14</v>
       </c>
+      <c r="I15" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="33" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
-      <c r="B16" s="35"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
       <c r="I16" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J16" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="L16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>15</v>
-      </c>
       <c r="N16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="O16" s="12" t="s">
-        <v>17</v>
-      </c>
       <c r="P16" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" s="45"/>
+        <v>20</v>
+      </c>
+      <c r="Q16" s="33"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
@@ -1198,727 +1141,381 @@
       <c r="Q17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="14">
-        <v>1</v>
-      </c>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="14"/>
       <c r="D18" s="14"/>
-      <c r="E18" s="18">
-        <v>1</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="14">
-        <v>1</v>
-      </c>
-      <c r="H18" s="14">
-        <v>1</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" s="14">
-        <v>1</v>
-      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="14"/>
       <c r="K18" s="14"/>
       <c r="L18" s="14"/>
-      <c r="M18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="N18" s="14">
-        <v>1</v>
-      </c>
+      <c r="M18" s="15"/>
+      <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
     </row>
     <row r="19" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="14">
-        <v>3</v>
-      </c>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="18">
-        <v>3</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="14">
-        <v>3</v>
-      </c>
-      <c r="H19" s="14">
-        <v>3</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J19" s="14">
-        <v>3</v>
-      </c>
+      <c r="E19" s="44"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="14"/>
       <c r="K19" s="14"/>
       <c r="L19" s="14"/>
-      <c r="M19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="14">
-        <v>3</v>
-      </c>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
     </row>
     <row r="20" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="14">
-        <v>4</v>
-      </c>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
-      <c r="E20" s="18">
-        <v>4</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="14">
-        <v>4</v>
-      </c>
-      <c r="H20" s="14">
-        <v>4</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J20" s="14">
-        <v>4</v>
-      </c>
+      <c r="E20" s="44"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="14"/>
       <c r="K20" s="14"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N20" s="14">
-        <v>4</v>
-      </c>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
       <c r="O20" s="14"/>
       <c r="P20" s="14"/>
       <c r="Q20" s="14"/>
     </row>
     <row r="21" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="14">
-        <v>2</v>
-      </c>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
-      <c r="E21" s="18">
-        <v>2</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="14">
-        <v>2</v>
-      </c>
-      <c r="H21" s="14">
-        <v>2</v>
-      </c>
-      <c r="I21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21" s="14">
-        <v>2</v>
-      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
-      <c r="M21" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N21" s="14">
-        <v>2</v>
-      </c>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14"/>
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="14">
-        <v>3</v>
-      </c>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
-      <c r="E22" s="18">
-        <v>3</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="14">
-        <v>3</v>
-      </c>
-      <c r="H22" s="14">
-        <v>3</v>
-      </c>
-      <c r="I22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J22" s="14">
-        <v>3</v>
-      </c>
+      <c r="E22" s="44"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="14"/>
       <c r="K22" s="14"/>
       <c r="L22" s="14"/>
-      <c r="M22" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N22" s="14">
-        <v>3</v>
-      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="14"/>
       <c r="P22" s="14"/>
       <c r="Q22" s="14"/>
     </row>
     <row r="23" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="14">
-        <v>4</v>
-      </c>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="14"/>
       <c r="D23" s="14"/>
-      <c r="E23" s="18">
-        <v>4</v>
-      </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="14">
-        <v>4</v>
-      </c>
-      <c r="H23" s="14">
-        <v>4</v>
-      </c>
-      <c r="I23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J23" s="14">
-        <v>4</v>
-      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="45"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="14"/>
       <c r="K23" s="14"/>
       <c r="L23" s="14"/>
-      <c r="M23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N23" s="14">
-        <v>4</v>
-      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
       <c r="O23" s="14"/>
       <c r="P23" s="14"/>
       <c r="Q23" s="14"/>
     </row>
     <row r="24" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="14">
-        <v>8</v>
-      </c>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="14"/>
       <c r="D24" s="14"/>
-      <c r="E24" s="18">
-        <v>8</v>
-      </c>
-      <c r="F24" s="18"/>
-      <c r="G24" s="14">
-        <v>8</v>
-      </c>
-      <c r="H24" s="14">
-        <v>8</v>
-      </c>
-      <c r="I24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J24" s="14">
-        <v>8</v>
-      </c>
+      <c r="E24" s="44"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="14"/>
       <c r="L24" s="14"/>
-      <c r="M24" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N24" s="14">
-        <v>8</v>
-      </c>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
       <c r="O24" s="14"/>
       <c r="P24" s="14"/>
       <c r="Q24" s="14"/>
     </row>
     <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="14">
-        <v>4</v>
-      </c>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
-      <c r="E25" s="18">
-        <v>4</v>
-      </c>
-      <c r="F25" s="18"/>
-      <c r="G25" s="14">
-        <v>4</v>
-      </c>
-      <c r="H25" s="14">
-        <v>4</v>
-      </c>
-      <c r="I25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="14">
-        <v>4</v>
-      </c>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="14"/>
       <c r="K25" s="14"/>
       <c r="L25" s="14"/>
-      <c r="M25" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N25" s="14">
-        <v>4</v>
-      </c>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
       <c r="O25" s="14"/>
       <c r="P25" s="14"/>
       <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="14">
-        <v>3</v>
-      </c>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
-      <c r="E26" s="18">
-        <v>3</v>
-      </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="14">
-        <v>3</v>
-      </c>
-      <c r="H26" s="14">
-        <v>3</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J26" s="14">
-        <v>3</v>
-      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="14"/>
       <c r="L26" s="14"/>
-      <c r="M26" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N26" s="14">
-        <v>3</v>
-      </c>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
       <c r="O26" s="14"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
     </row>
     <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="14">
-        <v>4</v>
-      </c>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
-      <c r="E27" s="18">
-        <v>4</v>
-      </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="14">
-        <v>4</v>
-      </c>
-      <c r="H27" s="14">
-        <v>4</v>
-      </c>
-      <c r="I27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J27" s="14">
-        <v>4</v>
-      </c>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
-      <c r="M27" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N27" s="14">
-        <v>4</v>
-      </c>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
       <c r="O27" s="14"/>
       <c r="P27" s="14"/>
       <c r="Q27" s="14"/>
     </row>
     <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="14">
-        <v>1</v>
-      </c>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
-      <c r="E28" s="18">
-        <v>1</v>
-      </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="14">
-        <v>1</v>
-      </c>
-      <c r="H28" s="14">
-        <v>1</v>
-      </c>
-      <c r="I28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="14">
-        <v>1</v>
-      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N28" s="14">
-        <v>1</v>
-      </c>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
       <c r="O28" s="14"/>
       <c r="P28" s="14"/>
       <c r="Q28" s="14"/>
     </row>
     <row r="29" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="14">
-        <v>1</v>
-      </c>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
-      <c r="E29" s="18">
-        <v>1</v>
-      </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="14">
-        <v>1</v>
-      </c>
-      <c r="H29" s="14">
-        <v>1</v>
-      </c>
-      <c r="I29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J29" s="14">
-        <v>1</v>
-      </c>
+      <c r="E29" s="44"/>
+      <c r="F29" s="45"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="14"/>
       <c r="K29" s="14"/>
       <c r="L29" s="14"/>
-      <c r="M29" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N29" s="14">
-        <v>1</v>
-      </c>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
       <c r="O29" s="14"/>
       <c r="P29" s="14"/>
       <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="14">
-        <v>3</v>
-      </c>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
-      <c r="E30" s="18">
-        <v>3</v>
-      </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="14">
-        <v>3</v>
-      </c>
-      <c r="H30" s="14">
-        <v>3</v>
-      </c>
-      <c r="I30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="14">
-        <v>3</v>
-      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="14"/>
       <c r="K30" s="14"/>
       <c r="L30" s="14"/>
-      <c r="M30" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N30" s="14">
-        <v>3</v>
-      </c>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
       <c r="O30" s="14"/>
       <c r="P30" s="14"/>
       <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="14">
-        <v>1</v>
-      </c>
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="14"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="14">
-        <v>1</v>
-      </c>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14">
-        <v>1</v>
-      </c>
-      <c r="H31" s="14">
-        <v>1</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J31" s="14">
-        <v>1</v>
-      </c>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="14"/>
       <c r="K31" s="14"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N31" s="14">
-        <v>1</v>
-      </c>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
       <c r="O31" s="14"/>
       <c r="P31" s="14"/>
       <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="14">
-        <v>5</v>
-      </c>
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14">
-        <v>5</v>
-      </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14">
-        <v>5</v>
-      </c>
-      <c r="H32" s="14">
-        <v>5</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J32" s="14">
-        <v>5</v>
-      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="45"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="14"/>
       <c r="K32" s="14"/>
       <c r="L32" s="14"/>
-      <c r="M32" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N32" s="14">
-        <v>5</v>
-      </c>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
       <c r="O32" s="14"/>
       <c r="P32" s="14"/>
       <c r="Q32" s="14"/>
     </row>
     <row r="33" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="14">
-        <v>2</v>
-      </c>
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
-      <c r="E33" s="14">
-        <v>2</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14">
-        <v>2</v>
-      </c>
-      <c r="H33" s="14">
-        <v>2</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J33" s="14">
-        <v>2</v>
-      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
-      <c r="M33" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N33" s="14">
-        <v>2</v>
-      </c>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
       <c r="O33" s="14"/>
       <c r="P33" s="14"/>
       <c r="Q33" s="14"/>
     </row>
     <row r="34" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="14">
-        <v>2</v>
-      </c>
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
-      <c r="E34" s="14">
-        <v>2</v>
-      </c>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14">
-        <v>2</v>
-      </c>
-      <c r="H34" s="14">
-        <v>2</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J34" s="14">
-        <v>2</v>
-      </c>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="14"/>
       <c r="L34" s="14"/>
-      <c r="M34" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N34" s="14">
-        <v>2</v>
-      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
       <c r="O34" s="14"/>
       <c r="P34" s="14"/>
       <c r="Q34" s="14"/>
     </row>
     <row r="35" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="14">
-        <v>4</v>
-      </c>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
       <c r="C35" s="14"/>
       <c r="D35" s="14"/>
-      <c r="E35" s="14">
-        <v>4</v>
-      </c>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14">
-        <v>4</v>
-      </c>
-      <c r="H35" s="14">
-        <v>4</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" s="14">
-        <v>4</v>
-      </c>
+      <c r="E35" s="44"/>
+      <c r="F35" s="45"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="14"/>
       <c r="K35" s="14"/>
       <c r="L35" s="14"/>
-      <c r="M35" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N35" s="14">
-        <v>4</v>
-      </c>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
       <c r="O35" s="14"/>
       <c r="P35" s="14"/>
       <c r="Q35" s="14"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13"/>
-      <c r="O36" s="13"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="45"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="16">
-        <f>SUM(B18:B35)</f>
-        <v>55</v>
-      </c>
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-      <c r="E37" s="16">
-        <f>SUM(E18:E35)</f>
-        <v>55</v>
-      </c>
-      <c r="F37" s="17"/>
-      <c r="G37" s="16">
-        <f>SUM(G18:G35)</f>
-        <v>55</v>
-      </c>
-      <c r="H37" s="16">
-        <f>SUM(H18:H35)</f>
-        <v>55</v>
-      </c>
-      <c r="I37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J37" s="16">
-        <v>1</v>
-      </c>
-      <c r="K37" s="17"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N37" s="16">
-        <v>1</v>
-      </c>
+      <c r="E37" s="44"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
       <c r="O37" s="17"/>
       <c r="P37" s="17"/>
       <c r="Q37" s="17"/>
@@ -2115,7 +1712,33 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="32">
+  <mergeCells count="39">
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E11:Q11"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="E12:Q12"/>
+    <mergeCell ref="E13:Q13"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="C15:D15"/>
@@ -2129,25 +1752,6 @@
     <mergeCell ref="Q15:Q16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="H15:H16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E11:Q11"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="E12:Q12"/>
-    <mergeCell ref="E13:Q13"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
